--- a/Benchmarks/STM - lists.xlsx
+++ b/Benchmarks/STM - lists.xlsx
@@ -154,17 +154,27 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1100"/>
               <a:t>Simpe Run</a:t>
             </a:r>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="he-IL" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2733152674097557"/>
+          <c:y val="0.15417250429903157"/>
+          <c:w val="0.6395579773020682"/>
+          <c:h val="0.63639460584668295"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -265,11 +275,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="56568448"/>
-        <c:axId val="56566912"/>
+        <c:axId val="94823936"/>
+        <c:axId val="95563776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56568448"/>
+        <c:axId val="94823936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -294,17 +304,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56566912"/>
+        <c:crossAx val="95563776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56566912"/>
+        <c:axId val="95563776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -322,24 +331,46 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0484649042163457E-3"/>
+              <c:y val="3.0254909728326357E-3"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56568448"/>
+        <c:crossAx val="94823936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75862316767774984"/>
+          <c:y val="3.8505089523589641E-3"/>
+          <c:w val="0.23805486882118021"/>
+          <c:h val="0.38220392438227802"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -359,17 +390,27 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1100"/>
               <a:t>1/2 Backwards Run</a:t>
             </a:r>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="he-IL" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20103018372703418"/>
+          <c:y val="0.15417250429903157"/>
+          <c:w val="0.74169903762029776"/>
+          <c:h val="0.63639460584668295"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -470,11 +511,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="56249728"/>
-        <c:axId val="56265344"/>
+        <c:axId val="95580928"/>
+        <c:axId val="95582848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56249728"/>
+        <c:axId val="95580928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -499,17 +540,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56265344"/>
+        <c:crossAx val="95582848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56265344"/>
+        <c:axId val="95582848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -531,20 +571,29 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56249728"/>
+        <c:crossAx val="95580928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74649131325072315"/>
+          <c:y val="2.8746795755589102E-3"/>
+          <c:w val="0.24875000000000003"/>
+          <c:h val="0.2804170879418284"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -564,17 +613,27 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>1/2 Backwards Run</a:t>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Random Run</a:t>
             </a:r>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="he-IL" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20103018372703418"/>
+          <c:y val="0.15417250429903157"/>
+          <c:w val="0.7103310650137401"/>
+          <c:h val="0.63639460584668295"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -675,11 +734,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="89748608"/>
-        <c:axId val="89773568"/>
+        <c:axId val="96812416"/>
+        <c:axId val="96814592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89748608"/>
+        <c:axId val="96812416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,17 +763,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89773568"/>
+        <c:crossAx val="96814592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89773568"/>
+        <c:axId val="96814592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -732,24 +790,40 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="1.9414305495277695E-3"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89748608"/>
+        <c:crossAx val="96812416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74710141650048345"/>
+          <c:y val="3.2613908872901679E-3"/>
+          <c:w val="0.24875000000000003"/>
+          <c:h val="0.2526105100171831"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -760,15 +834,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>314323</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -795,10 +869,10 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -825,10 +899,10 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1138,8 +1212,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L63" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64:R64"/>
+    <sheetView tabSelected="1" topLeftCell="J70" workbookViewId="0">
+      <selection activeCell="X112" sqref="X112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
